--- a/anunturi/spatii.xlsx
+++ b/anunturi/spatii.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A3796E-D807-40C6-B337-3E258CE8B849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FF7172-08D3-4815-82AE-56704AE5D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>adresa</t>
   </si>
@@ -48,6 +48,9 @@
     <t>rascoala</t>
   </si>
   <si>
+    <t>nr1</t>
+  </si>
+  <si>
     <t>coiciu</t>
   </si>
   <si>
@@ -57,12 +60,18 @@
     <t>cur</t>
   </si>
   <si>
+    <t>nr2</t>
+  </si>
+  <si>
     <t>este f bun</t>
   </si>
   <si>
     <t>pzida</t>
   </si>
   <si>
+    <t>nr4</t>
+  </si>
+  <si>
     <t>inel 1</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
   </si>
   <si>
     <t>tata</t>
+  </si>
+  <si>
+    <t>nr78</t>
   </si>
   <si>
     <t>inel 2</t>
@@ -437,7 +449,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,56 +475,56 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/anunturi/spatii.xlsx
+++ b/anunturi/spatii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FF7172-08D3-4815-82AE-56704AE5D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEAEB04-FF96-4DED-B40C-A92F7B45BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>adresa</t>
   </si>
@@ -45,56 +45,59 @@
     <t>descriere</t>
   </si>
   <si>
-    <t>rascoala</t>
-  </si>
-  <si>
-    <t>nr1</t>
-  </si>
-  <si>
-    <t>coiciu</t>
+    <t>imagine URL</t>
+  </si>
+  <si>
+    <t>rascoalei</t>
+  </si>
+  <si>
+    <t>centru</t>
   </si>
   <si>
     <t>este bun</t>
   </si>
   <si>
-    <t>cur</t>
-  </si>
-  <si>
-    <t>nr2</t>
+    <t>../img/s/s1.jpg</t>
+  </si>
+  <si>
+    <t>ion voicu</t>
+  </si>
+  <si>
+    <t>compozitori</t>
   </si>
   <si>
     <t>este f bun</t>
   </si>
   <si>
-    <t>pzida</t>
-  </si>
-  <si>
-    <t>nr4</t>
-  </si>
-  <si>
-    <t>inel 1</t>
+    <t>../img/s/s2.jpg</t>
+  </si>
+  <si>
+    <t>tabla butii</t>
+  </si>
+  <si>
+    <t>falza nord</t>
   </si>
   <si>
     <t>este ff bun</t>
   </si>
   <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>nr78</t>
-  </si>
-  <si>
-    <t>inel 2</t>
+    <t>../img/s/s3.jpg</t>
+  </si>
+  <si>
+    <t>mihai eminescu</t>
   </si>
   <si>
     <t>este ffff bun</t>
+  </si>
+  <si>
+    <t>../img/s/s4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -129,9 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,18 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,13 +481,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -484,47 +498,59 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/anunturi/spatii.xlsx
+++ b/anunturi/spatii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEAEB04-FF96-4DED-B40C-A92F7B45BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{999B29DD-761D-41F0-8155-812E88904608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="20">
   <si>
     <t>adresa</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A5" sqref="A5:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,6 +553,669 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/anunturi/spatii.xlsx
+++ b/anunturi/spatii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9D867B-30A5-4CB8-AB66-5445D35219FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3048F2-FA7B-46C2-9144-085A9B3DEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>adresa</t>
   </si>
@@ -45,7 +45,10 @@
     <t>descriere</t>
   </si>
   <si>
-    <t>imagine URL</t>
+    <t>imagine URL index</t>
+  </si>
+  <si>
+    <t>imagine URL anunturi</t>
   </si>
   <si>
     <t>rascoalei</t>
@@ -57,6 +60,9 @@
     <t>este bun</t>
   </si>
   <si>
+    <t>img/s/s1.jpg</t>
+  </si>
+  <si>
     <t>../img/s/s1.jpg</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>este f bun</t>
   </si>
   <si>
+    <t>img/s/s2.jpg</t>
+  </si>
+  <si>
     <t>../img/s/s2.jpg</t>
   </si>
   <si>
@@ -81,6 +90,9 @@
     <t>este ff bun</t>
   </si>
   <si>
+    <t>img/s/s3.jpg</t>
+  </si>
+  <si>
     <t>../img/s/s3.jpg</t>
   </si>
   <si>
@@ -90,6 +102,9 @@
     <t>este ffff bun</t>
   </si>
   <si>
+    <t>img/s/s4.jpg</t>
+  </si>
+  <si>
     <t>../img/s/s4.jpg</t>
   </si>
   <si>
@@ -97,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">nu are toaleta </t>
+  </si>
+  <si>
+    <t>img/s/s5.jpg</t>
   </si>
   <si>
     <t>../img/s/s5.jpg</t>
@@ -465,19 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A8:XFD44"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,107 +512,128 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>17</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/anunturi/spatii.xlsx
+++ b/anunturi/spatii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3048F2-FA7B-46C2-9144-085A9B3DEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10923A20-1E94-48E9-9F42-6E42AAF3CDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>adresa</t>
   </si>
@@ -111,6 +111,9 @@
     <t>pescariilor</t>
   </si>
   <si>
+    <t>inel 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">nu are toaleta </t>
   </si>
   <si>
@@ -118,6 +121,24 @@
   </si>
   <si>
     <t>../img/s/s5.jpg</t>
+  </si>
+  <si>
+    <t>inel 2</t>
+  </si>
+  <si>
+    <t>general manu</t>
+  </si>
+  <si>
+    <t>56a</t>
+  </si>
+  <si>
+    <t>la mamaie rica</t>
+  </si>
+  <si>
+    <t>img/s/s6.jpg</t>
+  </si>
+  <si>
+    <t>../img/s/s6.jpg</t>
   </si>
 </sst>
 </file>
@@ -483,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,17 +624,17 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -623,8 +644,8 @@
       <c r="B7">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -634,6 +655,246 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>81.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>97.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>112.9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>128.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>175.7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>191.4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>207.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>222.8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>238.5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/anunturi/spatii.xlsx
+++ b/anunturi/spatii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27218"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10923A20-1E94-48E9-9F42-6E42AAF3CDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EEE65A-0C0C-4901-AF85-1212D5A3013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>adresa</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>../img/s/s6.jpg</t>
+  </si>
+  <si>
+    <t>adam clisi</t>
+  </si>
+  <si>
+    <t>dani prostu cainele nostru</t>
   </si>
 </sst>
 </file>
@@ -504,15 +510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="59.28515625" customWidth="1"/>
   </cols>
@@ -897,6 +904,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
